--- a/backend/uploaded_files/1e0860b7-a35b-4813-aa25-15523b6f22e7_Vehicles List.xlsx
+++ b/backend/uploaded_files/1e0860b7-a35b-4813-aa25-15523b6f22e7_Vehicles List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hybrid Arks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A4B98-4243-4E94-9CBF-564AFB7127C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9F26C-1FAB-44AA-9771-117647D8DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,25 @@
     <sheet name="Oct 2025" sheetId="2" r:id="rId2"/>
     <sheet name="Nov 2025" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>S.No.</t>
   </si>
@@ -58,6 +71,36 @@
   </si>
   <si>
     <t>TN22ED4894</t>
+  </si>
+  <si>
+    <t>TN02CE6854</t>
+  </si>
+  <si>
+    <t>TN02CE6898</t>
+  </si>
+  <si>
+    <t>TN02CE6853</t>
+  </si>
+  <si>
+    <t>TN02CE6806</t>
+  </si>
+  <si>
+    <t>TN02CE6827</t>
+  </si>
+  <si>
+    <t>TN02CE6894</t>
+  </si>
+  <si>
+    <t>TN02CE6829</t>
+  </si>
+  <si>
+    <t>TN02CE6879</t>
+  </si>
+  <si>
+    <t>TN02CE6813</t>
+  </si>
+  <si>
+    <t>TN02CE6877</t>
   </si>
 </sst>
 </file>
@@ -6480,7 +6523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19023DB-5756-47E5-8552-32BF9CC8BD8D}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6578,66 +6623,126 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <f t="shared" ref="A13:A21" si="0">A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
